--- a/testSound.xlsx
+++ b/testSound.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Audio File Sorting (Combined MST)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/ProjectBL/AgingStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{B9802334-D337-4FAE-AFF5-F3E5CB15E75B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9FA471A3-83D8-4654-9EDA-604ECF1EDDF1}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{B9802334-D337-4FAE-AFF5-F3E5CB15E75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FA471A3-83D8-4654-9EDA-604ECF1EDDF1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{AEB957A4-5A45-4DE2-A801-AD67BD8B9DFA}"/>
   </bookViews>
@@ -25359,7 +25359,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D45" ca="1" si="0">RAND()</f>
-        <v>0.88752159275022069</v>
+        <v>0.89860632292367559</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>22</v>
@@ -25383,7 +25383,7 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20385908508023154</v>
+        <v>0.37268742875835237</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>23</v>
@@ -25407,7 +25407,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17500424799308645</v>
+        <v>0.78975008291421545</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>24</v>
@@ -25431,7 +25431,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51794758224653958</v>
+        <v>0.68705137603171362</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>38</v>
@@ -25455,7 +25455,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68554350050704471</v>
+        <v>0.50207074560180365</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>39</v>
@@ -25479,7 +25479,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2937186657956539E-2</v>
+        <v>0.16634429817304719</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>47</v>
@@ -25503,7 +25503,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26755452924751588</v>
+        <v>0.75613923009281359</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>50</v>
@@ -25527,7 +25527,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69140349319977223</v>
+        <v>0.85763397100235939</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>11</v>
@@ -25551,7 +25551,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28208706655522009</v>
+        <v>0.33176804130321325</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>12</v>
@@ -25575,7 +25575,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21083424833076048</v>
+        <v>0.50945238844121743</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>13</v>
@@ -25599,7 +25599,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61789517130544747</v>
+        <v>0.43251814620335349</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>54</v>
@@ -25623,7 +25623,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6693721334666085E-2</v>
+        <v>0.46846132350195269</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>73</v>
@@ -25647,7 +25647,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4040161272374174E-2</v>
+        <v>0.22676091426141465</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>86</v>
@@ -25671,7 +25671,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16267392439399253</v>
+        <v>0.62994179239485071</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>65</v>
@@ -25695,7 +25695,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4362096137055731</v>
+        <v>0.59559086579049736</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>69</v>
@@ -25719,7 +25719,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17654440509162306</v>
+        <v>0.95758147493570966</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>52</v>
@@ -25743,7 +25743,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3542785284227582</v>
+        <v>0.87068937340115993</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>74</v>
@@ -25767,7 +25767,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77535233960976313</v>
+        <v>0.53248573848011904</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>78</v>
@@ -25788,7 +25788,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95465642433457865</v>
+        <v>0.57185758896270344</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>89</v>
@@ -25812,7 +25812,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>8.97404131700823E-2</v>
+        <v>0.38861344139309839</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>58</v>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62763078122981042</v>
+        <v>0.84549870596314547</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -25848,7 +25848,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90800809442001151</v>
+        <v>0.42829224895982176</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -25860,7 +25860,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90735776746101293</v>
+        <v>0.22863630998242301</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -25872,7 +25872,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85098553205395111</v>
+        <v>0.68849986544955255</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -25884,7 +25884,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95276369614893031</v>
+        <v>0.91930750265723904</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -25896,7 +25896,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29773321909793238</v>
+        <v>0.56580559837444833</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -25908,7 +25908,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86953953438535703</v>
+        <v>0.10200703916261455</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -25920,7 +25920,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21898264162448811</v>
+        <v>0.50799715760139386</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -25932,7 +25932,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76471311929814634</v>
+        <v>0.79667124331305117</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -25944,7 +25944,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33768268854725791</v>
+        <v>0.14108389988356684</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -25954,7 +25954,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64379389919225372</v>
+        <v>0.68903624883381698</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -25966,7 +25966,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67880157678608999</v>
+        <v>0.17506319168290752</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -25978,7 +25978,7 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27392566902564963</v>
+        <v>0.24094863158022273</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -25990,7 +25990,7 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12256750434979025</v>
+        <v>0.82183876062377659</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -26002,7 +26002,7 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13840682304975471</v>
+        <v>0.75145603892068147</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -26014,7 +26014,7 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40716612617821724</v>
+        <v>0.9447377850961205</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -26026,7 +26026,7 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67416171860734164</v>
+        <v>0.47556477142492171</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -26038,7 +26038,7 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28645710932342705</v>
+        <v>0.68338666208479182</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -26050,7 +26050,7 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64887023076338424</v>
+        <v>0.84263995475912934</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -26062,7 +26062,7 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70470541501753148</v>
+        <v>0.44094885639870551</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -26074,7 +26074,7 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36232003284459358</v>
+        <v>0.13308708381006673</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -26086,7 +26086,7 @@
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56799143020255838</v>
+        <v>0.48120694341600234</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -26095,7 +26095,7 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77732288284741224</v>
+        <v>0.82289002986850968</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -26104,7 +26104,7 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53280651532382783</v>
+        <v>6.5163859351991649E-2</v>
       </c>
     </row>
   </sheetData>
